--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value279.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value279.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7067240981833299</v>
+        <v>1.500406265258789</v>
       </c>
       <c r="B1">
-        <v>1.56272793934796</v>
+        <v>1.527007341384888</v>
       </c>
       <c r="C1">
-        <v>2.509906516428245</v>
+        <v>1.713122367858887</v>
       </c>
       <c r="D1">
-        <v>2.824359201511046</v>
+        <v>2.634259223937988</v>
       </c>
       <c r="E1">
-        <v>1.328861088239843</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
